--- a/data/pca/factorExposure/factorExposure_2017-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02317503104572716</v>
+        <v>-0.01009103710095453</v>
       </c>
       <c r="C2">
-        <v>-0.006676079719256361</v>
+        <v>-0.04249833654619448</v>
       </c>
       <c r="D2">
-        <v>-0.03252303295538721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02928119372748779</v>
+      </c>
+      <c r="E2">
+        <v>-0.03452962798985637</v>
+      </c>
+      <c r="F2">
+        <v>0.008797986422852726</v>
+      </c>
+      <c r="G2">
+        <v>-0.09417198756765134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01830973573475536</v>
+        <v>-0.04142654286629267</v>
       </c>
       <c r="C3">
-        <v>0.01282091617038089</v>
+        <v>-0.1021521253079484</v>
       </c>
       <c r="D3">
-        <v>-0.1068150696714635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01778045264982287</v>
+      </c>
+      <c r="E3">
+        <v>-0.09902838132233938</v>
+      </c>
+      <c r="F3">
+        <v>0.00519560197940106</v>
+      </c>
+      <c r="G3">
+        <v>-0.1736339765238289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02516610630099805</v>
+        <v>-0.05583648279729585</v>
       </c>
       <c r="C4">
-        <v>-0.0009465420135701854</v>
+        <v>-0.06829375359339436</v>
       </c>
       <c r="D4">
-        <v>-0.08579042144922759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02429371594403817</v>
+      </c>
+      <c r="E4">
+        <v>-0.02966464186352801</v>
+      </c>
+      <c r="F4">
+        <v>0.01046800565291559</v>
+      </c>
+      <c r="G4">
+        <v>-0.09954723681868316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01204383295353478</v>
+        <v>-0.03706656405368416</v>
       </c>
       <c r="C6">
-        <v>-0.01139018985201225</v>
+        <v>-0.0522618495104452</v>
       </c>
       <c r="D6">
-        <v>-0.08185311504348923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01680796650017355</v>
+      </c>
+      <c r="E6">
+        <v>-0.03541018556085306</v>
+      </c>
+      <c r="F6">
+        <v>0.007354973872705852</v>
+      </c>
+      <c r="G6">
+        <v>-0.08326022749633294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.00834987769957387</v>
+        <v>-0.02076529812323232</v>
       </c>
       <c r="C7">
-        <v>-0.009079088422590084</v>
+        <v>-0.0396474230257728</v>
       </c>
       <c r="D7">
-        <v>-0.03526022399608574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01393597943298942</v>
+      </c>
+      <c r="E7">
+        <v>-0.005196531697907186</v>
+      </c>
+      <c r="F7">
+        <v>-0.003647379295333554</v>
+      </c>
+      <c r="G7">
+        <v>-0.1204388850186837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0004557993340425202</v>
+        <v>-0.003844141330485744</v>
       </c>
       <c r="C8">
-        <v>-0.0008522967154106568</v>
+        <v>-0.02448896157943281</v>
       </c>
       <c r="D8">
-        <v>-0.00196084265764931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003840142954500914</v>
+      </c>
+      <c r="E8">
+        <v>-0.02732177761904528</v>
+      </c>
+      <c r="F8">
+        <v>0.007034460249325724</v>
+      </c>
+      <c r="G8">
+        <v>-0.06962247992401459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01886580840540025</v>
+        <v>-0.03378057973676845</v>
       </c>
       <c r="C9">
-        <v>0.004931191476426057</v>
+        <v>-0.04937691936876228</v>
       </c>
       <c r="D9">
-        <v>-0.06141768816114256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01635911446682116</v>
+      </c>
+      <c r="E9">
+        <v>-0.01926230894021816</v>
+      </c>
+      <c r="F9">
+        <v>0.00715223500992973</v>
+      </c>
+      <c r="G9">
+        <v>-0.100062915596248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07940754886514007</v>
+        <v>-0.09822694031055135</v>
       </c>
       <c r="C10">
-        <v>0.1729317527306797</v>
+        <v>0.1820906103519626</v>
       </c>
       <c r="D10">
-        <v>0.0942494374276675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01518341626668322</v>
+      </c>
+      <c r="E10">
+        <v>-0.02091250747717455</v>
+      </c>
+      <c r="F10">
+        <v>-0.02250542278163728</v>
+      </c>
+      <c r="G10">
+        <v>-0.05897556144961876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001354250402568882</v>
+        <v>-0.03427428392191938</v>
       </c>
       <c r="C11">
-        <v>-0.002974022924672302</v>
+        <v>-0.05438443640869048</v>
       </c>
       <c r="D11">
-        <v>-0.05671595389034211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002511016990966991</v>
+      </c>
+      <c r="E11">
+        <v>-0.0173012998702282</v>
+      </c>
+      <c r="F11">
+        <v>0.02115446236685182</v>
+      </c>
+      <c r="G11">
+        <v>-0.09180054808007337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004306126689219418</v>
+        <v>-0.03582069688540492</v>
       </c>
       <c r="C12">
-        <v>-0.004435182609625834</v>
+        <v>-0.0491048019592794</v>
       </c>
       <c r="D12">
-        <v>-0.04883784858147235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006541825576445104</v>
+      </c>
+      <c r="E12">
+        <v>-0.008379094481404305</v>
+      </c>
+      <c r="F12">
+        <v>0.002168411905419641</v>
+      </c>
+      <c r="G12">
+        <v>-0.0833502955381558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02490602914327053</v>
+        <v>-0.01545511150421391</v>
       </c>
       <c r="C13">
-        <v>0.001563752841053653</v>
+        <v>-0.04206973802748442</v>
       </c>
       <c r="D13">
-        <v>-0.03883918703876928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02640014740311877</v>
+      </c>
+      <c r="E13">
+        <v>-0.03619241085002514</v>
+      </c>
+      <c r="F13">
+        <v>0.005685738176919908</v>
+      </c>
+      <c r="G13">
+        <v>-0.1360029012898236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008590386193516382</v>
+        <v>-0.008581420291147236</v>
       </c>
       <c r="C14">
-        <v>0.001497419822293351</v>
+        <v>-0.02889550624359426</v>
       </c>
       <c r="D14">
-        <v>-0.01694613915731704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01003133975166053</v>
+      </c>
+      <c r="E14">
+        <v>-0.006736270281909481</v>
+      </c>
+      <c r="F14">
+        <v>-0.007242220426979951</v>
+      </c>
+      <c r="G14">
+        <v>-0.1032945398677846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002147004052334149</v>
+        <v>-0.03272908178321256</v>
       </c>
       <c r="C16">
-        <v>0.002243306306428504</v>
+        <v>-0.04733831833127492</v>
       </c>
       <c r="D16">
-        <v>-0.04390575572816113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002011893668755807</v>
+      </c>
+      <c r="E16">
+        <v>-0.01489915333556078</v>
+      </c>
+      <c r="F16">
+        <v>0.002269806183493418</v>
+      </c>
+      <c r="G16">
+        <v>-0.09219819062092044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01177717872171522</v>
+        <v>-0.02186680011350518</v>
       </c>
       <c r="C19">
-        <v>-0.00560990151014113</v>
+        <v>-0.05393008756917388</v>
       </c>
       <c r="D19">
-        <v>-0.04766619293392759</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01879560970155928</v>
+      </c>
+      <c r="E19">
+        <v>-0.07442075269860134</v>
+      </c>
+      <c r="F19">
+        <v>0.02101718044780921</v>
+      </c>
+      <c r="G19">
+        <v>-0.1330318088747112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.008328261361939137</v>
+        <v>-0.01469561099729724</v>
       </c>
       <c r="C20">
-        <v>-0.007541446354290584</v>
+        <v>-0.04172003257868166</v>
       </c>
       <c r="D20">
-        <v>-0.03602952142995676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01428282917158006</v>
+      </c>
+      <c r="E20">
+        <v>-0.03636937282333302</v>
+      </c>
+      <c r="F20">
+        <v>-0.01128411766312459</v>
+      </c>
+      <c r="G20">
+        <v>-0.1102597933759573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01496670130835784</v>
+        <v>-0.01219502018974351</v>
       </c>
       <c r="C21">
-        <v>0.0006356315919303796</v>
+        <v>-0.03993877388286415</v>
       </c>
       <c r="D21">
-        <v>-0.03351756082887205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01891621233979118</v>
+      </c>
+      <c r="E21">
+        <v>-0.04978818655966159</v>
+      </c>
+      <c r="F21">
+        <v>0.002299264744033521</v>
+      </c>
+      <c r="G21">
+        <v>-0.1293636715008261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001500537108013814</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0003937188287276432</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0005799131598057722</v>
+      </c>
+      <c r="E22">
+        <v>-0.003097879199321175</v>
+      </c>
+      <c r="F22">
+        <v>0.001504003023608654</v>
+      </c>
+      <c r="G22">
+        <v>-0.005011053642735983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001506067758704035</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.000405253906896971</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0005787242363624471</v>
+      </c>
+      <c r="E23">
+        <v>-0.0030853578082616</v>
+      </c>
+      <c r="F23">
+        <v>0.001509685053272291</v>
+      </c>
+      <c r="G23">
+        <v>-0.004902446592047137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001023213522072039</v>
+        <v>-0.02820211103031141</v>
       </c>
       <c r="C24">
-        <v>-0.01040657430432035</v>
+        <v>-0.05167392547883045</v>
       </c>
       <c r="D24">
-        <v>-0.04800548824591228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007275750406357596</v>
+      </c>
+      <c r="E24">
+        <v>-0.01159573479533233</v>
+      </c>
+      <c r="F24">
+        <v>0.01259226456716246</v>
+      </c>
+      <c r="G24">
+        <v>-0.09209679783733582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01347891494797334</v>
+        <v>-0.04236365012549057</v>
       </c>
       <c r="C25">
-        <v>0.002877065629053545</v>
+        <v>-0.05890773032230854</v>
       </c>
       <c r="D25">
-        <v>-0.06046046573643564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01126381830822103</v>
+      </c>
+      <c r="E25">
+        <v>-0.003612773005463017</v>
+      </c>
+      <c r="F25">
+        <v>0.006741045501037183</v>
+      </c>
+      <c r="G25">
+        <v>-0.1011259159841948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02197994367899074</v>
+        <v>-0.01428064619353165</v>
       </c>
       <c r="C26">
-        <v>-0.00559614941979708</v>
+        <v>-0.01135869888170233</v>
       </c>
       <c r="D26">
-        <v>-0.0007392025778103379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0240318581478988</v>
+      </c>
+      <c r="E26">
+        <v>-0.009437839742772331</v>
+      </c>
+      <c r="F26">
+        <v>-0.009498729874420579</v>
+      </c>
+      <c r="G26">
+        <v>-0.08231254725984513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1142803570268931</v>
+        <v>-0.1241258009362614</v>
       </c>
       <c r="C28">
-        <v>0.2162038332077352</v>
+        <v>0.2379194338417665</v>
       </c>
       <c r="D28">
-        <v>0.1155011736439216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006288091384098375</v>
+      </c>
+      <c r="E28">
+        <v>-0.008264766353209151</v>
+      </c>
+      <c r="F28">
+        <v>-0.01600356272524159</v>
+      </c>
+      <c r="G28">
+        <v>-0.04354594626084142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01090395640451676</v>
+        <v>-0.009512288529303589</v>
       </c>
       <c r="C29">
-        <v>0.006791160535024916</v>
+        <v>-0.02305557366196404</v>
       </c>
       <c r="D29">
-        <v>-0.01923765864867295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009024749320312317</v>
+      </c>
+      <c r="E29">
+        <v>-0.003915887562884447</v>
+      </c>
+      <c r="F29">
+        <v>-0.01565018579420272</v>
+      </c>
+      <c r="G29">
+        <v>-0.09617233768475347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01998294075941971</v>
+        <v>-0.04181535856377552</v>
       </c>
       <c r="C30">
-        <v>-0.01567475079981525</v>
+        <v>-0.07148720520618135</v>
       </c>
       <c r="D30">
-        <v>-0.1044875123707988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02863247322129933</v>
+      </c>
+      <c r="E30">
+        <v>-0.05691173109019942</v>
+      </c>
+      <c r="F30">
+        <v>0.04357904894194528</v>
+      </c>
+      <c r="G30">
+        <v>-0.1283664831211294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01668779099703389</v>
+        <v>-0.05291792060295881</v>
       </c>
       <c r="C31">
-        <v>0.02230248413073808</v>
+        <v>-0.03781702914748544</v>
       </c>
       <c r="D31">
-        <v>-0.03570843432405625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003856085014485386</v>
+      </c>
+      <c r="E31">
+        <v>-0.0004404246676985155</v>
+      </c>
+      <c r="F31">
+        <v>-0.04067802451239761</v>
+      </c>
+      <c r="G31">
+        <v>-0.0997379076483306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001149805072483628</v>
+        <v>-0.00252968134104907</v>
       </c>
       <c r="C32">
-        <v>0.01639085353411507</v>
+        <v>-0.02541962286196947</v>
       </c>
       <c r="D32">
-        <v>-0.007107955459593861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00348154338294854</v>
+      </c>
+      <c r="E32">
+        <v>-0.02914159795857181</v>
+      </c>
+      <c r="F32">
+        <v>0.03846050880922205</v>
+      </c>
+      <c r="G32">
+        <v>-0.07709163229270972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01254721651224492</v>
+        <v>-0.02768082674338444</v>
       </c>
       <c r="C33">
-        <v>-0.0005903357015228306</v>
+        <v>-0.05135963591474093</v>
       </c>
       <c r="D33">
-        <v>-0.04527416724165135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01567623060909972</v>
+      </c>
+      <c r="E33">
+        <v>-0.04213133376511187</v>
+      </c>
+      <c r="F33">
+        <v>0.01559202051068817</v>
+      </c>
+      <c r="G33">
+        <v>-0.1606967366632949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-5.574250496415398e-05</v>
+        <v>-0.03989526900017151</v>
       </c>
       <c r="C34">
-        <v>0.01191572136874712</v>
+        <v>-0.06047243349301445</v>
       </c>
       <c r="D34">
-        <v>-0.06027542079974225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004532740736962648</v>
+      </c>
+      <c r="E34">
+        <v>-0.006450665913751059</v>
+      </c>
+      <c r="F34">
+        <v>0.02063234941814885</v>
+      </c>
+      <c r="G34">
+        <v>-0.09528873010346249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01550314293952127</v>
+        <v>-0.01603664762440776</v>
       </c>
       <c r="C36">
-        <v>0.007189332336738868</v>
+        <v>-0.009752007230150175</v>
       </c>
       <c r="D36">
-        <v>-0.005750458384824205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01251331050571154</v>
+      </c>
+      <c r="E36">
+        <v>-0.008508700235994862</v>
+      </c>
+      <c r="F36">
+        <v>-0.007016757879309531</v>
+      </c>
+      <c r="G36">
+        <v>-0.09065638204947732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005410934512564843</v>
+        <v>-0.03126887330999138</v>
       </c>
       <c r="C38">
-        <v>0.02651176830039861</v>
+        <v>-0.03136518525933851</v>
       </c>
       <c r="D38">
-        <v>-0.04486318362776631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007444874308609297</v>
+      </c>
+      <c r="E38">
+        <v>-0.006283469460108742</v>
+      </c>
+      <c r="F38">
+        <v>-0.01921202338028797</v>
+      </c>
+      <c r="G38">
+        <v>-0.08710324309431094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00319809823189328</v>
+        <v>-0.03663124681359157</v>
       </c>
       <c r="C39">
-        <v>-0.0277557290914697</v>
+        <v>-0.08083861494157546</v>
       </c>
       <c r="D39">
-        <v>-0.1022150767313246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01148713886259136</v>
+      </c>
+      <c r="E39">
+        <v>-0.02713380183110817</v>
+      </c>
+      <c r="F39">
+        <v>0.02265131222243746</v>
+      </c>
+      <c r="G39">
+        <v>-0.08787171855679513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01413695075189127</v>
+        <v>-0.0134893008287793</v>
       </c>
       <c r="C40">
-        <v>0.003984271593819417</v>
+        <v>-0.04103918590355914</v>
       </c>
       <c r="D40">
-        <v>-0.04181321335167732</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01490828395048776</v>
+      </c>
+      <c r="E40">
+        <v>-0.03230179375591087</v>
+      </c>
+      <c r="F40">
+        <v>-0.006802957257169812</v>
+      </c>
+      <c r="G40">
+        <v>-0.1188359161709226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01263500157571857</v>
+        <v>-0.02067941378398216</v>
       </c>
       <c r="C41">
-        <v>0.01857113669833892</v>
+        <v>-0.002313305875718039</v>
       </c>
       <c r="D41">
-        <v>0.01097017307777418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00439098174446573</v>
+      </c>
+      <c r="E41">
+        <v>-0.00704533601215477</v>
+      </c>
+      <c r="F41">
+        <v>-0.01562718589328728</v>
+      </c>
+      <c r="G41">
+        <v>-0.08514783779441347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.07586743414866956</v>
+        <v>-0.009443705082499946</v>
       </c>
       <c r="C42">
-        <v>-0.06005577030054565</v>
+        <v>-0.03464057609975598</v>
       </c>
       <c r="D42">
-        <v>-0.163724085185581</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08973512751377126</v>
+      </c>
+      <c r="E42">
+        <v>-0.01693177820323211</v>
+      </c>
+      <c r="F42">
+        <v>-0.04785081208436448</v>
+      </c>
+      <c r="G42">
+        <v>0.04199357130262872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01313938956152031</v>
+        <v>-0.0353731491488657</v>
       </c>
       <c r="C43">
-        <v>0.01798352391572906</v>
+        <v>-0.01823215599865547</v>
       </c>
       <c r="D43">
-        <v>0.004743141032314338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005877182398767883</v>
+      </c>
+      <c r="E43">
+        <v>-0.02142306881834572</v>
+      </c>
+      <c r="F43">
+        <v>-0.005977119763645363</v>
+      </c>
+      <c r="G43">
+        <v>-0.1222846073850479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002582168973767639</v>
+        <v>-0.01337453883449583</v>
       </c>
       <c r="C44">
-        <v>-0.001854500317415332</v>
+        <v>-0.0588552011861379</v>
       </c>
       <c r="D44">
-        <v>-0.05646813443793836</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006906938129297532</v>
+      </c>
+      <c r="E44">
+        <v>-0.02304918137217785</v>
+      </c>
+      <c r="F44">
+        <v>-0.003401232235554272</v>
+      </c>
+      <c r="G44">
+        <v>-0.1110044073348309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01081520251250106</v>
+        <v>-0.007819728631838318</v>
       </c>
       <c r="C46">
-        <v>-8.197935454045108e-05</v>
+        <v>-0.01718556620238629</v>
       </c>
       <c r="D46">
-        <v>-0.002176781076522407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0127353508213723</v>
+      </c>
+      <c r="E46">
+        <v>-0.004243888252057697</v>
+      </c>
+      <c r="F46">
+        <v>-0.01519936413700074</v>
+      </c>
+      <c r="G46">
+        <v>-0.1053169901709922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01126973664041186</v>
+        <v>-0.07726582197485179</v>
       </c>
       <c r="C47">
-        <v>0.02554503739740366</v>
+        <v>-0.06855628996074219</v>
       </c>
       <c r="D47">
-        <v>-0.07362544271179386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004937389499126889</v>
+      </c>
+      <c r="E47">
+        <v>0.006795008044899733</v>
+      </c>
+      <c r="F47">
+        <v>-0.05484076057533201</v>
+      </c>
+      <c r="G47">
+        <v>-0.08449299731236426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.007370620058365912</v>
+        <v>-0.01913353507381994</v>
       </c>
       <c r="C48">
-        <v>0.01193088440101995</v>
+        <v>-0.0128965296773143</v>
       </c>
       <c r="D48">
-        <v>-0.01981077522447639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002027724780955734</v>
+      </c>
+      <c r="E48">
+        <v>-0.004075348120428741</v>
+      </c>
+      <c r="F48">
+        <v>-0.02003563454495321</v>
+      </c>
+      <c r="G48">
+        <v>-0.096114628367024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01809392690787129</v>
+        <v>-0.07536073830027365</v>
       </c>
       <c r="C50">
-        <v>0.03525996474851554</v>
+        <v>-0.07214880295267911</v>
       </c>
       <c r="D50">
-        <v>-0.07184566518795778</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002188824132968534</v>
+      </c>
+      <c r="E50">
+        <v>0.003377794722384963</v>
+      </c>
+      <c r="F50">
+        <v>-0.05667884216650755</v>
+      </c>
+      <c r="G50">
+        <v>-0.09409151131406948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007686390903003664</v>
+        <v>-0.0147560462048528</v>
       </c>
       <c r="C51">
-        <v>0.002146552023154056</v>
+        <v>-0.03602852164969909</v>
       </c>
       <c r="D51">
-        <v>-0.01835487290921527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0104988156149841</v>
+      </c>
+      <c r="E51">
+        <v>-0.02426988974309898</v>
+      </c>
+      <c r="F51">
+        <v>0.02472056938449063</v>
+      </c>
+      <c r="G51">
+        <v>-0.1217766753774126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01793036013620822</v>
+        <v>-0.0814975756697712</v>
       </c>
       <c r="C53">
-        <v>0.03276743976470136</v>
+        <v>-0.08595035151715358</v>
       </c>
       <c r="D53">
-        <v>-0.1344004178656902</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003273237851264232</v>
+      </c>
+      <c r="E53">
+        <v>0.02479003281957175</v>
+      </c>
+      <c r="F53">
+        <v>-0.06323645701426066</v>
+      </c>
+      <c r="G53">
+        <v>-0.09463681358476972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01153579450582339</v>
+        <v>-0.03208604466276536</v>
       </c>
       <c r="C54">
-        <v>0.03072863326609618</v>
+        <v>-0.01871167463580446</v>
       </c>
       <c r="D54">
-        <v>0.004516797813072284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001546894620758386</v>
+      </c>
+      <c r="E54">
+        <v>-0.01681713488696905</v>
+      </c>
+      <c r="F54">
+        <v>-0.005343095563728096</v>
+      </c>
+      <c r="G54">
+        <v>-0.1071996504775993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01011767559577634</v>
+        <v>-0.07193135471322483</v>
       </c>
       <c r="C55">
-        <v>0.01997863976496892</v>
+        <v>-0.06929101081293809</v>
       </c>
       <c r="D55">
-        <v>-0.1060631159824962</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004839739181345997</v>
+      </c>
+      <c r="E55">
+        <v>0.02254202401160557</v>
+      </c>
+      <c r="F55">
+        <v>-0.06393043784696394</v>
+      </c>
+      <c r="G55">
+        <v>-0.0711069757841561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01914693672605602</v>
+        <v>-0.1364728791906828</v>
       </c>
       <c r="C56">
-        <v>0.04366402424274679</v>
+        <v>-0.1080037952324514</v>
       </c>
       <c r="D56">
-        <v>-0.1608296649449912</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0122909111485519</v>
+      </c>
+      <c r="E56">
+        <v>0.03155618773113233</v>
+      </c>
+      <c r="F56">
+        <v>-0.08095832259195097</v>
+      </c>
+      <c r="G56">
+        <v>-0.04677344278146206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02368565026797013</v>
+        <v>-0.005457327402013218</v>
       </c>
       <c r="C57">
-        <v>-0.00426313341664381</v>
+        <v>-0.007026960864252372</v>
       </c>
       <c r="D57">
-        <v>-0.03504157686110406</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02324952889189317</v>
+      </c>
+      <c r="E57">
+        <v>-0.02536729575848198</v>
+      </c>
+      <c r="F57">
+        <v>0.01059091468927219</v>
+      </c>
+      <c r="G57">
+        <v>-0.02664942010268299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01523965010761635</v>
+        <v>-0.05196141932212953</v>
       </c>
       <c r="C58">
-        <v>0.023916380187066</v>
+        <v>-0.05264624999696021</v>
       </c>
       <c r="D58">
-        <v>-0.143895642438765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02057263384027777</v>
+      </c>
+      <c r="E58">
+        <v>-0.917502129034978</v>
+      </c>
+      <c r="F58">
+        <v>-0.263154827887507</v>
+      </c>
+      <c r="G58">
+        <v>0.2166800827587007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1231897872405547</v>
+        <v>-0.1597363875860066</v>
       </c>
       <c r="C59">
-        <v>0.2435896757669446</v>
+        <v>0.2047103978471854</v>
       </c>
       <c r="D59">
-        <v>0.09957387855352806</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01166171743629123</v>
+      </c>
+      <c r="E59">
+        <v>-0.02016656761530992</v>
+      </c>
+      <c r="F59">
+        <v>-0.004202678096038016</v>
+      </c>
+      <c r="G59">
+        <v>-0.03803736027700826</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1031444379177179</v>
+        <v>-0.2890754938156893</v>
       </c>
       <c r="C60">
-        <v>0.1611381919421367</v>
+        <v>-0.1054848551013479</v>
       </c>
       <c r="D60">
-        <v>-0.1474397287106936</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01109349441927547</v>
+      </c>
+      <c r="E60">
+        <v>0.003234261922214381</v>
+      </c>
+      <c r="F60">
+        <v>0.3391831053973166</v>
+      </c>
+      <c r="G60">
+        <v>0.1610501098918741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002515327886212395</v>
+        <v>-0.03888593894462866</v>
       </c>
       <c r="C61">
-        <v>-0.003240901415560197</v>
+        <v>-0.06709800707506165</v>
       </c>
       <c r="D61">
-        <v>-0.07837067846047652</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005415082005730334</v>
+      </c>
+      <c r="E61">
+        <v>-0.02230604815289866</v>
+      </c>
+      <c r="F61">
+        <v>0.0144053030032991</v>
+      </c>
+      <c r="G61">
+        <v>-0.09507682676507503</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007798581201407763</v>
+        <v>-0.01552208921193236</v>
       </c>
       <c r="C63">
-        <v>-0.001890669104339553</v>
+        <v>-0.0304377083664372</v>
       </c>
       <c r="D63">
-        <v>-0.02479676811946457</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008532497281992618</v>
+      </c>
+      <c r="E63">
+        <v>-0.003387280948391836</v>
+      </c>
+      <c r="F63">
+        <v>-0.01938428370998754</v>
+      </c>
+      <c r="G63">
+        <v>-0.09398812198630588</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01842415034163751</v>
+        <v>-0.04868376544077258</v>
       </c>
       <c r="C64">
-        <v>0.0238869653433906</v>
+        <v>-0.04785764911306747</v>
       </c>
       <c r="D64">
-        <v>-0.0645824400185744</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006194178565935349</v>
+      </c>
+      <c r="E64">
+        <v>-0.005497743318004496</v>
+      </c>
+      <c r="F64">
+        <v>0.005008243894191584</v>
+      </c>
+      <c r="G64">
+        <v>-0.09873342350801188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02185247401717994</v>
+        <v>-0.07509018034322204</v>
       </c>
       <c r="C65">
-        <v>0.003315013650852953</v>
+        <v>-0.05912846071663947</v>
       </c>
       <c r="D65">
-        <v>-0.1121685206233098</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0164792953249998</v>
+      </c>
+      <c r="E65">
+        <v>-0.03777706932324302</v>
+      </c>
+      <c r="F65">
+        <v>0.02931599001650037</v>
+      </c>
+      <c r="G65">
+        <v>-0.03826983339728125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.002847454609434895</v>
+        <v>-0.05139522136949205</v>
       </c>
       <c r="C66">
-        <v>-0.02669396858506654</v>
+        <v>-0.1079647424910664</v>
       </c>
       <c r="D66">
-        <v>-0.1373593982925138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01147936623603436</v>
+      </c>
+      <c r="E66">
+        <v>-0.03844133569958686</v>
+      </c>
+      <c r="F66">
+        <v>0.03539559600210238</v>
+      </c>
+      <c r="G66">
+        <v>-0.104218323878544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01763455871533611</v>
+        <v>-0.05437688115418216</v>
       </c>
       <c r="C67">
-        <v>0.04305617723994141</v>
+        <v>-0.03439355355574921</v>
       </c>
       <c r="D67">
-        <v>-0.06433168152520492</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005968971811314551</v>
+      </c>
+      <c r="E67">
+        <v>0.001725111190981072</v>
+      </c>
+      <c r="F67">
+        <v>-0.01793712496340701</v>
+      </c>
+      <c r="G67">
+        <v>-0.07670746479324042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1385043851936423</v>
+        <v>-0.1555016655070898</v>
       </c>
       <c r="C68">
-        <v>0.2334628360510805</v>
+        <v>0.2713650949571105</v>
       </c>
       <c r="D68">
-        <v>0.1479896541593266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005762659226204844</v>
+      </c>
+      <c r="E68">
+        <v>-0.01281808551979218</v>
+      </c>
+      <c r="F68">
+        <v>-0.03608463056858006</v>
+      </c>
+      <c r="G68">
+        <v>-0.0289209284819786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01297466898948917</v>
+        <v>-0.08276243659627355</v>
       </c>
       <c r="C69">
-        <v>0.03693311023266451</v>
+        <v>-0.06994861991180169</v>
       </c>
       <c r="D69">
-        <v>-0.08023452923185875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008787349980344274</v>
+      </c>
+      <c r="E69">
+        <v>0.02027334825833857</v>
+      </c>
+      <c r="F69">
+        <v>-0.03622761700465202</v>
+      </c>
+      <c r="G69">
+        <v>-0.103457103397196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1074879911080556</v>
+        <v>-0.1403053073786096</v>
       </c>
       <c r="C71">
-        <v>0.1929650498725347</v>
+        <v>0.2291577510605448</v>
       </c>
       <c r="D71">
-        <v>0.09856039678821034</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002679514919360812</v>
+      </c>
+      <c r="E71">
+        <v>-0.03577872541007674</v>
+      </c>
+      <c r="F71">
+        <v>-0.02238947820854012</v>
+      </c>
+      <c r="G71">
+        <v>-0.06867709288986332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.006141672149335942</v>
+        <v>-0.08601584637351553</v>
       </c>
       <c r="C72">
-        <v>0.023188011737005</v>
+        <v>-0.06880750350956386</v>
       </c>
       <c r="D72">
-        <v>-0.1012635889667648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008449233565922419</v>
+      </c>
+      <c r="E72">
+        <v>0.007754098465333822</v>
+      </c>
+      <c r="F72">
+        <v>0.03948517119519358</v>
+      </c>
+      <c r="G72">
+        <v>-0.09038289022762834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1210901297653172</v>
+        <v>-0.3774303037114862</v>
       </c>
       <c r="C73">
-        <v>0.1732691829740089</v>
+        <v>-0.1163541873418098</v>
       </c>
       <c r="D73">
-        <v>-0.2791707925240197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01980152317437902</v>
+      </c>
+      <c r="E73">
+        <v>-0.07637761582857863</v>
+      </c>
+      <c r="F73">
+        <v>0.5764888281790939</v>
+      </c>
+      <c r="G73">
+        <v>0.2914775302125746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01863337518289943</v>
+        <v>-0.104773719749922</v>
       </c>
       <c r="C74">
-        <v>0.04489795163474698</v>
+        <v>-0.1093435371304677</v>
       </c>
       <c r="D74">
-        <v>-0.1761897622954623</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009341948838294945</v>
+      </c>
+      <c r="E74">
+        <v>0.006973383366184794</v>
+      </c>
+      <c r="F74">
+        <v>-0.06847714644511846</v>
+      </c>
+      <c r="G74">
+        <v>-0.08571766998262524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.04784280364517539</v>
+        <v>-0.2476519970264935</v>
       </c>
       <c r="C75">
-        <v>0.1113380880980445</v>
+        <v>-0.1512310388129921</v>
       </c>
       <c r="D75">
-        <v>-0.2974875333607731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03058068318612557</v>
+      </c>
+      <c r="E75">
+        <v>0.06758961266377159</v>
+      </c>
+      <c r="F75">
+        <v>-0.1690981477872937</v>
+      </c>
+      <c r="G75">
+        <v>0.01097840689148256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01832783572182152</v>
+        <v>-0.1179590837829363</v>
       </c>
       <c r="C76">
-        <v>0.05748367962065937</v>
+        <v>-0.1096225903648856</v>
       </c>
       <c r="D76">
-        <v>-0.2128755635416773</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01791709705105978</v>
+      </c>
+      <c r="E76">
+        <v>0.02824467747826177</v>
+      </c>
+      <c r="F76">
+        <v>-0.106581720295709</v>
+      </c>
+      <c r="G76">
+        <v>-0.06089179989566849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01859043096416862</v>
+        <v>-0.06829197065155425</v>
       </c>
       <c r="C77">
-        <v>0.01137507410807004</v>
+        <v>-0.05894631335469691</v>
       </c>
       <c r="D77">
-        <v>-0.07173978260470906</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01101159780143975</v>
+      </c>
+      <c r="E77">
+        <v>-0.04706177361281264</v>
+      </c>
+      <c r="F77">
+        <v>0.01133741324796344</v>
+      </c>
+      <c r="G77">
+        <v>-0.06730894818925201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.009099231639928216</v>
+        <v>-0.04292802785111952</v>
       </c>
       <c r="C78">
-        <v>0.00829901474330395</v>
+        <v>-0.05012260306426747</v>
       </c>
       <c r="D78">
-        <v>-0.06107612586318116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005830616173432197</v>
+      </c>
+      <c r="E78">
+        <v>-0.02834064813124897</v>
+      </c>
+      <c r="F78">
+        <v>0.03773849952459271</v>
+      </c>
+      <c r="G78">
+        <v>-0.1030771695115317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02447552389959237</v>
+        <v>-0.04330756274740606</v>
       </c>
       <c r="C80">
-        <v>0.02079511568304196</v>
+        <v>-0.05125629988481022</v>
       </c>
       <c r="D80">
-        <v>-0.08472113910288595</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01316531935661426</v>
+      </c>
+      <c r="E80">
+        <v>-0.02453924539663276</v>
+      </c>
+      <c r="F80">
+        <v>0.01438021439960916</v>
+      </c>
+      <c r="G80">
+        <v>-0.05219343423036135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02822214403622783</v>
+        <v>-0.1367557593150839</v>
       </c>
       <c r="C81">
-        <v>0.06372949621219402</v>
+        <v>-0.09532979162961745</v>
       </c>
       <c r="D81">
-        <v>-0.1708972079499916</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01473960055556613</v>
+      </c>
+      <c r="E81">
+        <v>0.03439101182508363</v>
+      </c>
+      <c r="F81">
+        <v>-0.1268462698625832</v>
+      </c>
+      <c r="G81">
+        <v>-0.02574385787825094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.132577237298207</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07807223732299172</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.008925493242161391</v>
+      </c>
+      <c r="E82">
+        <v>0.09924106594757159</v>
+      </c>
+      <c r="F82">
+        <v>-0.04791298630165622</v>
+      </c>
+      <c r="G82">
+        <v>-0.07391155526150379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01280638018428253</v>
+        <v>-0.03618396704063434</v>
       </c>
       <c r="C83">
-        <v>0.01555858579308301</v>
+        <v>-0.02938567417179375</v>
       </c>
       <c r="D83">
-        <v>-0.03587452902788783</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005842674400453413</v>
+      </c>
+      <c r="E83">
+        <v>-0.03010670917335163</v>
+      </c>
+      <c r="F83">
+        <v>0.03049715695322056</v>
+      </c>
+      <c r="G83">
+        <v>-0.05899606027834985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.04892369886803356</v>
+        <v>-0.2128202511062973</v>
       </c>
       <c r="C85">
-        <v>0.08727356387220116</v>
+        <v>-0.1467855689421305</v>
       </c>
       <c r="D85">
-        <v>-0.2768938913222155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01737092957871844</v>
+      </c>
+      <c r="E85">
+        <v>0.1028353334122922</v>
+      </c>
+      <c r="F85">
+        <v>-0.1239107812449217</v>
+      </c>
+      <c r="G85">
+        <v>0.06095247255834307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01350696215318267</v>
+        <v>-0.01408738011842642</v>
       </c>
       <c r="C86">
-        <v>0.01351370922180297</v>
+        <v>-0.02691818595176352</v>
       </c>
       <c r="D86">
-        <v>-0.05479806173207516</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01181969791886362</v>
+      </c>
+      <c r="E86">
+        <v>-0.05241421884185735</v>
+      </c>
+      <c r="F86">
+        <v>0.02117983920217905</v>
+      </c>
+      <c r="G86">
+        <v>-0.1930852807540078</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004367025652871841</v>
+        <v>-0.02114537957764897</v>
       </c>
       <c r="C87">
-        <v>-0.01082615481899956</v>
+        <v>-0.02308426327749976</v>
       </c>
       <c r="D87">
-        <v>-0.0491281107624577</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01184850130384234</v>
+      </c>
+      <c r="E87">
+        <v>-0.09264482387928731</v>
+      </c>
+      <c r="F87">
+        <v>0.009582093871471058</v>
+      </c>
+      <c r="G87">
+        <v>-0.1219524036707206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0373820954669029</v>
+        <v>-0.0939591575874273</v>
       </c>
       <c r="C88">
-        <v>0.02210704824703327</v>
+        <v>-0.0683045356243233</v>
       </c>
       <c r="D88">
-        <v>-0.053199980249805</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02216815238022035</v>
+      </c>
+      <c r="E88">
+        <v>0.003014795919045679</v>
+      </c>
+      <c r="F88">
+        <v>-0.01891723719058301</v>
+      </c>
+      <c r="G88">
+        <v>-0.0937775171042393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2026470909299298</v>
+        <v>-0.231798225986225</v>
       </c>
       <c r="C89">
-        <v>0.358345605916808</v>
+        <v>0.3681035721471138</v>
       </c>
       <c r="D89">
-        <v>0.1768942350623662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002837861422810908</v>
+      </c>
+      <c r="E89">
+        <v>0.01353674963919343</v>
+      </c>
+      <c r="F89">
+        <v>-0.02509688693801591</v>
+      </c>
+      <c r="G89">
+        <v>-0.0699258550443807</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.16128587620368</v>
+        <v>-0.2077722104113673</v>
       </c>
       <c r="C90">
-        <v>0.2916926786222994</v>
+        <v>0.3182180049794739</v>
       </c>
       <c r="D90">
-        <v>0.1590857934846933</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004252365958535061</v>
+      </c>
+      <c r="E90">
+        <v>-0.002724717559872494</v>
+      </c>
+      <c r="F90">
+        <v>-0.04827213821149123</v>
+      </c>
+      <c r="G90">
+        <v>-0.04975986210560541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.04145568474750316</v>
+        <v>-0.186213365040559</v>
       </c>
       <c r="C91">
-        <v>0.1007653004116326</v>
+        <v>-0.1405521138722814</v>
       </c>
       <c r="D91">
-        <v>-0.2262064850109599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02191481571457242</v>
+      </c>
+      <c r="E91">
+        <v>0.06303571211439304</v>
+      </c>
+      <c r="F91">
+        <v>-0.1427949194180682</v>
+      </c>
+      <c r="G91">
+        <v>-0.03686845277202213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1251697195213956</v>
+        <v>-0.1980661955966011</v>
       </c>
       <c r="C92">
-        <v>0.2885067538574304</v>
+        <v>0.2561188442378831</v>
       </c>
       <c r="D92">
-        <v>0.0647667995463959</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03768705647188995</v>
+      </c>
+      <c r="E92">
+        <v>-0.04602030509660279</v>
+      </c>
+      <c r="F92">
+        <v>-0.05941615947578021</v>
+      </c>
+      <c r="G92">
+        <v>-0.1158979238844863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1684839303626356</v>
+        <v>-0.2313012600184078</v>
       </c>
       <c r="C93">
-        <v>0.3153061019834507</v>
+        <v>0.3145838054331023</v>
       </c>
       <c r="D93">
-        <v>0.1320873397168222</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01114019659579717</v>
+      </c>
+      <c r="E93">
+        <v>-0.008193965262402972</v>
+      </c>
+      <c r="F93">
+        <v>-0.04348594611698205</v>
+      </c>
+      <c r="G93">
+        <v>-0.06087978980813313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.08201883053167169</v>
+        <v>-0.3198699921742548</v>
       </c>
       <c r="C94">
-        <v>0.1333931840568919</v>
+        <v>-0.1771206321722288</v>
       </c>
       <c r="D94">
-        <v>-0.2936003318854471</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01791936056680966</v>
+      </c>
+      <c r="E94">
+        <v>0.2098435951891939</v>
+      </c>
+      <c r="F94">
+        <v>-0.4805403855832954</v>
+      </c>
+      <c r="G94">
+        <v>0.428085556962244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0009087297260150913</v>
+        <v>-0.101480135031465</v>
       </c>
       <c r="C95">
-        <v>0.0154479456054457</v>
+        <v>-0.08946850124967905</v>
       </c>
       <c r="D95">
-        <v>-0.1237495422489272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01074602457951544</v>
+      </c>
+      <c r="E95">
+        <v>-0.07561274848327892</v>
+      </c>
+      <c r="F95">
+        <v>0.2016407547795717</v>
+      </c>
+      <c r="G95">
+        <v>0.03784794093913475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.06091191057241367</v>
+        <v>-0.195982600092213</v>
       </c>
       <c r="C98">
-        <v>0.1375108981760888</v>
+        <v>-0.04498187284322492</v>
       </c>
       <c r="D98">
-        <v>-0.1558359720703938</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01376475377632032</v>
+      </c>
+      <c r="E98">
+        <v>-0.07015784942885109</v>
+      </c>
+      <c r="F98">
+        <v>0.2364592869384189</v>
+      </c>
+      <c r="G98">
+        <v>0.008930966174863171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01067502504725249</v>
+        <v>-0.00929426414306332</v>
       </c>
       <c r="C101">
-        <v>0.006691364497315369</v>
+        <v>-0.02307884296605353</v>
       </c>
       <c r="D101">
-        <v>-0.01916333732052371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.00886877903120329</v>
+      </c>
+      <c r="E101">
+        <v>-0.003743116879259564</v>
+      </c>
+      <c r="F101">
+        <v>-0.0166064236320438</v>
+      </c>
+      <c r="G101">
+        <v>-0.09508236371638694</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.03159025626247858</v>
+        <v>-0.1162928127117772</v>
       </c>
       <c r="C102">
-        <v>0.04171096559600625</v>
+        <v>-0.08358716784115175</v>
       </c>
       <c r="D102">
-        <v>-0.131757629057141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0009026796343541987</v>
+      </c>
+      <c r="E102">
+        <v>0.03499723050295465</v>
+      </c>
+      <c r="F102">
+        <v>-0.04113404478575399</v>
+      </c>
+      <c r="G102">
+        <v>-0.0180034436721367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.8722574408276056</v>
+        <v>-0.02126221547281686</v>
       </c>
       <c r="C104">
-        <v>-0.4695090406485048</v>
+        <v>0.02973387075704017</v>
       </c>
       <c r="D104">
-        <v>0.03811634988595446</v>
+        <v>0.9879611115926478</v>
+      </c>
+      <c r="E104">
+        <v>0.04730175824074573</v>
+      </c>
+      <c r="F104">
+        <v>-0.03345296014124594</v>
+      </c>
+      <c r="G104">
+        <v>0.03674880528244008</v>
       </c>
     </row>
   </sheetData>
